--- a/biology/Biologie cellulaire et moléculaire/Sarcoplasme/Sarcoplasme.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Sarcoplasme/Sarcoplasme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sarcoplasme est le cytoplasme d'une fibre musculaire striée. C'est la partie basophile autour des champs de Conheim qu'il délimite par des travées (il découpe le myoplasme en champs de Conheim). Le sarcoplasme forme un maillage associant réticulum endoplasmique lisse et granuleux. On le retrouve entre les champs de Conheim au niveau sous membranaire.
  Portail de la biologie cellulaire et moléculaire                     </t>
